--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="12195" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="硬體規格" sheetId="1" r:id="rId1"/>
@@ -1674,7 +1674,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1684,13 +1684,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1722,6 +1715,105 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1742,32 +1834,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1776,89 +1845,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1893,49 +1879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,55 +1909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2019,7 +1933,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,7 +2005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,37 +2035,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,11 +2073,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2114,23 +2121,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2152,15 +2153,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2170,17 +2162,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2189,153 +2175,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2351,10 +2337,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2705,8 +2688,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2770,7 +2753,7 @@
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2822,7 +2805,7 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2874,7 +2857,7 @@
       <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3207,7 +3190,7 @@
       <c r="A21" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C21" t="s">
@@ -3233,7 +3216,7 @@
       <c r="A22" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C22" t="s">
@@ -3259,7 +3242,7 @@
       <c r="A23" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="s">
@@ -3285,7 +3268,7 @@
       <c r="A24" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C24" t="s">
@@ -3311,7 +3294,7 @@
       <c r="A25" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C25" t="s">
@@ -3337,7 +3320,7 @@
       <c r="A26" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C26" t="s">
@@ -3363,7 +3346,7 @@
       <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C27" t="s">
@@ -3389,7 +3372,7 @@
       <c r="A28" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C28" t="s">
@@ -3415,7 +3398,7 @@
       <c r="A29" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C29" t="s">
@@ -3441,7 +3424,7 @@
       <c r="A30" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C30" t="s">
@@ -3467,7 +3450,7 @@
       <c r="A31" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C31" t="s">
@@ -3490,7 +3473,7 @@
       <c r="A32" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C32" t="s">
@@ -3527,8 +3510,8 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="13845" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="硬體規格" sheetId="1" r:id="rId1"/>
@@ -1712,107 +1712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,9 +1736,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1845,6 +1798,53 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1879,7 +1879,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,13 +1933,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,49 +2035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,103 +2059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2074,21 +2074,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2099,6 +2084,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2131,6 +2125,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2150,174 +2170,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2689,7 +2689,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="12195"/>
+    <workbookView windowWidth="10050" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="硬體規格" sheetId="1" r:id="rId1"/>
@@ -1670,9 +1670,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1712,6 +1712,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1736,50 +1779,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,9 +1809,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,17 +1841,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1879,6 +1879,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1891,7 +1903,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,157 +2053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,6 +2070,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2097,26 +2121,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2126,21 +2141,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2156,17 +2156,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2175,149 +2175,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2688,8 +2688,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10050" windowHeight="12195"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="硬體規格" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,39 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SLM和SCCM都常常是气体质量流量单位。 
+SLM（Standard Liter per Minute）是表示每分钟标准升。 
+SCCM（Standard Cubic Centimeter per Minute）是表示每分钟标准毫升。 
+如果需要知道单位时间内流过介质的质量（如g/min）,就要以介质的密度乘以SLM就可以得到了</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H8" authorId="0">
       <text>
         <r>
@@ -332,13 +365,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">SET_MFC_1_Open
 SET_MFC_1_Close
 </t>
@@ -1670,8 +1696,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1705,17 +1731,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1727,44 +1747,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1772,53 +1755,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,17 +1771,106 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1879,31 +1905,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,67 +1935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +1953,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,49 +2037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2059,7 +2055,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,17 +2099,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2112,15 +2132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2132,26 +2143,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2170,158 +2161,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2332,6 +2358,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2689,7 +2718,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2753,7 +2782,7 @@
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2805,7 +2834,7 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2857,7 +2886,7 @@
       <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2900,7 +2929,7 @@
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -3182,7 +3211,7 @@
       <c r="G20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3190,7 +3219,7 @@
       <c r="A21" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C21" t="s">
@@ -3216,7 +3245,7 @@
       <c r="A22" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C22" t="s">
@@ -3242,7 +3271,7 @@
       <c r="A23" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="s">
@@ -3268,7 +3297,7 @@
       <c r="A24" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C24" t="s">
@@ -3294,7 +3323,7 @@
       <c r="A25" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C25" t="s">
@@ -3320,7 +3349,7 @@
       <c r="A26" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C26" t="s">
@@ -3346,7 +3375,7 @@
       <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C27" t="s">
@@ -3372,7 +3401,7 @@
       <c r="A28" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C28" t="s">
@@ -3398,7 +3427,7 @@
       <c r="A29" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C29" t="s">
@@ -3424,7 +3453,7 @@
       <c r="A30" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C30" t="s">
@@ -3450,7 +3479,7 @@
       <c r="A31" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C31" t="s">
@@ -3473,7 +3502,7 @@
       <c r="A32" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C32" t="s">

--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -181,6 +181,43 @@
         </r>
       </text>
     </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>mbar是指气压单位
+mb=mbar 毫巴(=百帕)
+mbar 毫巴(=百帕) 
+hPa 百帕 
+1百帕=1毫巴=3/4毫米水银柱 
+1Kpa=10百帕=7.5毫米汞柱=7.5mmhg
+1Bar=0.1MPa=1000mba=1000hpa=100*7.5mmhg=75mmhg=1个大气压
+DryPump干氏泵</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H20" authorId="0">
       <text>
         <r>
@@ -216,6 +253,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加热棒</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -365,6 +432,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">SET_MFC_1_Open
 SET_MFC_1_Close
 </t>
@@ -1338,8 +1412,8 @@
   <si>
     <t>SET_SubstrateHolder_1_ON
 SET_SubstrateHolder_1_OFF
-SET_SubstrateHolder_1_Resolution // for Calibration
-SET_SubstrateHolder_1_Offset // for Calibration
+SET_SubstrateHolder_1_Resolution // for Calibration用于校准
+SET_SubstrateHolder_1_Offset // for Calibration用于校准
 GET_SubstrateHolder_1_Temp
 GET_SubstrateHolder_1_Status // // 確認目前狀態是加熱中或停止加熱</t>
   </si>
@@ -1366,8 +1440,8 @@
   <si>
     <t>SET_HeatingJackets_1_ON
 SET_HeatingJackets_1_OFF
-SET_HeatingJackets_1_Resolution // for Calibration
-SET_HeatingJackets_1_Offset // for Calibration
+SET_HeatingJackets_1_Resolution // for Calibration用于校准
+SET_HeatingJackets_1_Offset // for Calibration用于校准
 GET_HeatingJackets_1_Temp
 GET_HeatingJackets_1_Status // // 確認目前狀態是加熱中或停止加熱</t>
   </si>
@@ -1383,7 +1457,7 @@
     <t>請提供 該裝置對應到設備23D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1001 RTD sensor.</t>
+    <t>Use PT1001 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_2</t>
@@ -1408,7 +1482,7 @@
     <t>請提供 該裝置對應到設備24D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1002 RTD sensor.</t>
+    <t>Use PT1002 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_3</t>
@@ -1433,7 +1507,7 @@
     <t>請提供 該裝置對應到設備25D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1003 RTD sensor.</t>
+    <t>Use PT1003 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_4</t>
@@ -1458,7 +1532,7 @@
     <t>請提供 該裝置對應到設備26D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1004 RTD sensor.</t>
+    <t>Use PT1004 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_5</t>
@@ -1483,7 +1557,7 @@
     <t>請提供 該裝置對應到設備27D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1005 RTD sensor.</t>
+    <t>Use PT1005 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_6</t>
@@ -1508,7 +1582,7 @@
     <t>請提供 該裝置對應到設備28D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1006 RTD sensor.</t>
+    <t>Use PT1006 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_7</t>
@@ -1533,7 +1607,7 @@
     <t>請提供 該裝置對應到設備29D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1007 RTD sensor.</t>
+    <t>Use PT1007 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_8</t>
@@ -1558,7 +1632,7 @@
     <t>請提供 該裝置對應到設備30D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1008 RTD sensor.</t>
+    <t>Use PT1008 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_9</t>
@@ -1583,7 +1657,7 @@
     <t>請提供 該裝置對應到設備31D圖的哪一個位置以及名稱</t>
   </si>
   <si>
-    <t>Use PT1009 RTD sensor.</t>
+    <t>Use PT1009 RTD sensor传感器.</t>
   </si>
   <si>
     <t>HeatingJackets_10</t>
@@ -1695,10 +1769,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1731,18 +1805,24 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1755,7 +1835,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,42 +1866,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1828,22 +1888,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1852,8 +1896,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1869,6 +1921,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1905,7 +1979,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,49 +2027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,25 +2057,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2019,25 +2111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,43 +2135,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,15 +2178,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2162,26 +2227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2196,154 +2241,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2718,7 +2792,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="15045" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="硬體規格" sheetId="1" r:id="rId1"/>
@@ -1769,9 +1769,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1808,41 +1808,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1856,9 +1827,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,6 +1859,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1888,18 +1894,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1912,7 +1911,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1920,21 +1927,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1943,6 +1936,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1979,13 +1979,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,31 +2045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,19 +2057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,25 +2069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,7 +2087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,7 +2099,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2117,7 +2147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2129,37 +2159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,11 +2173,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2197,21 +2227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2227,35 +2242,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2270,154 +2261,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2791,8 +2791,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15045" windowHeight="12195"/>
+    <workbookView windowWidth="13845" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="硬體規格" sheetId="1" r:id="rId1"/>
@@ -1769,10 +1769,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1805,38 +1805,9 @@
       <charset val="136"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,6 +1820,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1856,9 +1842,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1866,21 +1851,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1894,9 +1864,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,16 +1888,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1941,8 +1903,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1979,7 +1979,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,25 +2039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,7 +2057,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,13 +2123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2051,73 +2135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2129,37 +2159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,11 +2188,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2208,21 +2223,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2246,7 +2246,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2275,149 +2275,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2791,8 +2791,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
+++ b/ThermoControlSystem_BOM_20181022( Version 1 ).xlsx
@@ -432,13 +432,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">SET_MFC_1_Open
 SET_MFC_1_Close
 </t>
@@ -1770,8 +1763,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1805,14 +1798,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1820,25 +1805,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1858,33 +1836,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1895,17 +1879,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1920,7 +1895,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,20 +1938,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1979,19 +1972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,7 +1996,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,7 +2098,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2039,127 +2152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,17 +2166,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2206,23 +2193,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2244,15 +2216,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2265,8 +2228,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2275,149 +2268,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2791,8 +2784,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
